--- a/util/AI-ImpactAssessmentTool.xlsx
+++ b/util/AI-ImpactAssessmentTool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\securityguideline\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97473EC8-2438-43CD-A807-5B5A4543E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BF101-8DCA-4765-A411-4C792D4A44FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="450" windowWidth="24045" windowHeight="14790" xr2:uid="{9B8EE092-BB82-4EBA-9074-72380EFB9FF5}"/>
+    <workbookView xWindow="345" yWindow="-13185" windowWidth="28260" windowHeight="10920" xr2:uid="{9B8EE092-BB82-4EBA-9074-72380EFB9FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="I. 説明" sheetId="34" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="305">
   <si>
     <t>AIシステムに対するAI特有の攻撃の影響分析ワークシート</t>
     <rPh sb="7" eb="8">
@@ -59,13 +59,6 @@
     </rPh>
     <rPh sb="18" eb="22">
       <t>エイキョウブンセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copyright ©2023 富士通株式会社</t>
-    <rPh sb="16" eb="23">
-      <t>フジツウカブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5758,6 +5751,13 @@
     </rPh>
     <rPh sb="112" eb="113">
       <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copyright ©2023-2025 富士通株式会社</t>
+    <rPh sb="21" eb="28">
+      <t>フジツウカブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6127,15 +6127,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6144,18 +6135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6166,14 +6145,26 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6200,6 +6191,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6229,14 +6229,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6305,9 +6305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6345,7 +6345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6451,7 +6451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6593,7 +6593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6612,12 +6612,12 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="12" spans="2:15" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -6749,12 +6749,12 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -6849,7 +6849,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4DC9A-B5DB-4ACD-B938-DE3EF6CD4C35}">
-  <dimension ref="B2:P68"/>
+  <dimension ref="B1:P68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6866,9 +6866,14 @@
     <col min="16" max="16" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
@@ -6876,137 +6881,137 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="46" t="str">
+        <v>60</v>
+      </c>
+      <c r="D5" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C6="","",'分析例（II. ヒアリングシート）'!C6)</f>
         <v>自動運転の道路標識識別システム</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
       <c r="P5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="46" t="str">
+        <v>96</v>
+      </c>
+      <c r="D6" s="43" t="str">
         <f>IF('分析例（III. 影響分析のための準備）'!D31="","",'分析例（III. 影響分析のための準備）'!D31)</f>
         <v>ドライバ、サービス提供者</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
       <c r="P6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="46" t="str">
+        <v>17</v>
+      </c>
+      <c r="D7" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C16="","",'分析例（II. ヒアリングシート）'!C16)</f>
         <v>機密</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
       <c r="P7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="46" t="str">
+        <v>97</v>
+      </c>
+      <c r="D8" s="43" t="str">
         <f>IF('分析例（III. 影響分析のための準備）'!D39="","",'分析例（III. 影響分析のための準備）'!D39)</f>
         <v>ドライバ、サービス提供者</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
       <c r="P8" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="46" t="str">
+        <v>98</v>
+      </c>
+      <c r="D9" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C23="","",'分析例（II. ヒアリングシート）'!C23)</f>
         <v>自身で撮影した画像</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
       <c r="P9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="64" t="str">
+        <v>24</v>
+      </c>
+      <c r="D10" s="66" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C26="","",'分析例（II. ヒアリングシート）'!C26)</f>
         <v>非公開</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D11" s="13"/>
@@ -7024,37 +7029,37 @@
     <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -7069,12 +7074,12 @@
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D21" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -7089,7 +7094,7 @@
     </row>
     <row r="22" spans="4:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D22" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -7104,267 +7109,267 @@
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D25" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="65" t="s">
-        <v>85</v>
-      </c>
       <c r="F25" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>108</v>
-      </c>
       <c r="J25" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="K25" s="58" t="s">
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" s="66"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="4:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="D27" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="65" t="s">
-        <v>85</v>
-      </c>
       <c r="F27" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="J27" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="I27" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="14" t="s">
+      <c r="K27" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="58" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="66"/>
+        <v>188</v>
+      </c>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D29" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="55"/>
       <c r="I29" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="58"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="58"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="66"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D31" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F31" s="55"/>
       <c r="G31" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="58"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="58"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K32" s="66"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D33" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="55"/>
       <c r="I33" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="58"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="58"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="66"/>
+      <c r="K34" s="64"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D35" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F35" s="55"/>
       <c r="G35" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="55"/>
       <c r="I35" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" s="58"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="58"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" s="66"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D45" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -7379,12 +7384,12 @@
     </row>
     <row r="46" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D47" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -7399,7 +7404,7 @@
     </row>
     <row r="48" spans="3:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D48" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -7414,54 +7419,54 @@
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D51" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="61" t="s">
-        <v>85</v>
-      </c>
       <c r="F51" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H51" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I51" s="61" t="s">
-        <v>116</v>
-      </c>
       <c r="J51" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K51" s="58" t="s">
         <v>187</v>
-      </c>
-      <c r="K51" s="58" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.4">
@@ -7472,7 +7477,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="62"/>
       <c r="J52" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K52" s="59"/>
     </row>
@@ -7484,34 +7489,34 @@
       <c r="H53" s="57"/>
       <c r="I53" s="63"/>
       <c r="J53" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K53" s="60"/>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D54" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="61" t="s">
-        <v>85</v>
-      </c>
       <c r="F54" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G54" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>116</v>
-      </c>
       <c r="J54" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54" s="58" t="s">
         <v>194</v>
-      </c>
-      <c r="K54" s="58" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.4">
@@ -7522,7 +7527,7 @@
       <c r="H55" s="56"/>
       <c r="I55" s="62"/>
       <c r="J55" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K55" s="59"/>
     </row>
@@ -7534,27 +7539,27 @@
       <c r="H56" s="57"/>
       <c r="I56" s="63"/>
       <c r="J56" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K56" s="60"/>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D57" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F57" s="55"/>
       <c r="G57" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H57" s="55"/>
       <c r="I57" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K57" s="58"/>
     </row>
@@ -7566,7 +7571,7 @@
       <c r="H58" s="56"/>
       <c r="I58" s="62"/>
       <c r="J58" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K58" s="59"/>
     </row>
@@ -7578,27 +7583,27 @@
       <c r="H59" s="57"/>
       <c r="I59" s="63"/>
       <c r="J59" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K59" s="60"/>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D60" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F60" s="55"/>
       <c r="G60" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H60" s="55"/>
       <c r="I60" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K60" s="58"/>
     </row>
@@ -7610,7 +7615,7 @@
       <c r="H61" s="56"/>
       <c r="I61" s="62"/>
       <c r="J61" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K61" s="59"/>
     </row>
@@ -7622,27 +7627,27 @@
       <c r="H62" s="57"/>
       <c r="I62" s="63"/>
       <c r="J62" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K62" s="60"/>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D63" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F63" s="55"/>
       <c r="G63" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H63" s="55"/>
       <c r="I63" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K63" s="58"/>
     </row>
@@ -7654,7 +7659,7 @@
       <c r="H64" s="56"/>
       <c r="I64" s="62"/>
       <c r="J64" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K64" s="59"/>
     </row>
@@ -7666,27 +7671,27 @@
       <c r="H65" s="57"/>
       <c r="I65" s="63"/>
       <c r="J65" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K65" s="60"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D66" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E66" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F66" s="55"/>
       <c r="G66" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H66" s="55"/>
       <c r="I66" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K66" s="58"/>
     </row>
@@ -7698,7 +7703,7 @@
       <c r="H67" s="56"/>
       <c r="I67" s="62"/>
       <c r="J67" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K67" s="59"/>
     </row>
@@ -7710,50 +7715,54 @@
       <c r="H68" s="57"/>
       <c r="I68" s="63"/>
       <c r="J68" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K68" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K68"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
     <mergeCell ref="D48:N48"/>
     <mergeCell ref="D5:N5"/>
     <mergeCell ref="D6:N6"/>
@@ -7770,48 +7779,44 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K63:K65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K68"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7821,7 +7826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D862F3B-34F8-45FE-AD3F-83DCA374ED6B}">
-  <dimension ref="B2:O33"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
@@ -7835,29 +7840,34 @@
     <col min="15" max="15" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="O3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -7870,39 +7880,39 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
       <c r="O5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="O6" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="O6" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="7"/>
       <c r="M7" s="8"/>
       <c r="O7" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -7913,63 +7923,63 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10"/>
-      <c r="C12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
+      <c r="C12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="11"/>
@@ -7978,7 +7988,7 @@
     <row r="15" spans="2:15" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11"/>
       <c r="C15" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -7989,63 +7999,63 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="10"/>
-      <c r="C19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
+      <c r="C19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="11"/>
@@ -8054,7 +8064,7 @@
     <row r="22" spans="2:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11"/>
       <c r="C22" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -8065,23 +8075,23 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="39"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="11"/>
@@ -8090,7 +8100,7 @@
     <row r="25" spans="2:13" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11"/>
       <c r="C25" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -8101,60 +8111,60 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="39"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
-      <c r="C29" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
+      <c r="C29" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="11"/>
@@ -8172,44 +8182,38 @@
     </row>
     <row r="32" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11"/>
-      <c r="C32" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="38"/>
+      <c r="C32" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C8:M8"/>
     <mergeCell ref="C29:M29"/>
     <mergeCell ref="C30:M30"/>
     <mergeCell ref="C32:M32"/>
@@ -8221,6 +8225,12 @@
     <mergeCell ref="C25:M25"/>
     <mergeCell ref="C26:M26"/>
     <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8230,7 +8240,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB56242-7016-4BD3-B3D1-4F23855A60CE}">
-  <dimension ref="B2:Q40"/>
+  <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8241,14 +8251,19 @@
     <col min="16" max="16" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -8263,63 +8278,63 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="P4" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
       <c r="P7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="49" t="str">
+        <v>35</v>
+      </c>
+      <c r="D8" s="46" t="str">
         <f>IF('II. ヒアリングシート'!C9="","",'II. ヒアリングシート'!C9)</f>
         <v/>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
       <c r="P8" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
@@ -8328,7 +8343,7 @@
     <row r="10" spans="2:17" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -8346,24 +8361,24 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -8372,13 +8387,13 @@
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="175.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -8393,43 +8408,43 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="46" t="str">
+        <v>41</v>
+      </c>
+      <c r="D16" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C30="","",'II. ヒアリングシート'!C30)</f>
         <v/>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.4">
@@ -8438,13 +8453,13 @@
     <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="209.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="3"/>
       <c r="D21" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -8459,43 +8474,43 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="46" t="str">
+        <v>45</v>
+      </c>
+      <c r="D22" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C33="","",'II. ヒアリングシート'!C33)</f>
         <v/>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="48"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
+        <v>46</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.4">
@@ -8506,19 +8521,19 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C27" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" s="3"/>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -8533,43 +8548,43 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="46" t="str">
+        <v>50</v>
+      </c>
+      <c r="D30" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C30="","",'II. ヒアリングシート'!C30)</f>
         <v/>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
+        <v>51</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.4">
@@ -8577,19 +8592,19 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C35" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="211.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="3"/>
       <c r="D37" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -8604,47 +8619,54 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="46" t="str">
+        <v>55</v>
+      </c>
+      <c r="D38" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C30="","",'II. ヒアリングシート'!C30)</f>
         <v/>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="48"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="54"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C40" s="3"/>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D39:N39"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="D37:N37"/>
+    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="D29:N29"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="D31:N31"/>
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="D8:N8"/>
@@ -8655,13 +8677,6 @@
     <mergeCell ref="D16:N16"/>
     <mergeCell ref="D17:N17"/>
     <mergeCell ref="D21:N21"/>
-    <mergeCell ref="D39:N39"/>
-    <mergeCell ref="D38:N38"/>
-    <mergeCell ref="D37:N37"/>
-    <mergeCell ref="D23:N23"/>
-    <mergeCell ref="D29:N29"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="D31:N31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8671,7 +8686,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58D1ED2-7E4C-4AD5-BB4A-D97FC2D94213}">
-  <dimension ref="B2:Q78"/>
+  <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8690,9 +8705,14 @@
     <col min="17" max="17" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -8700,119 +8720,119 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="46" t="str">
+        <v>60</v>
+      </c>
+      <c r="D5" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C6="","",'II. ヒアリングシート'!C6)</f>
         <v/>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
       <c r="Q5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="46" t="str">
+        <v>61</v>
+      </c>
+      <c r="D6" s="43" t="str">
         <f>IF('III. 影響分析のための準備'!D11="","",'III. 影響分析のための準備'!D11)</f>
         <v/>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
       <c r="Q6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="46" t="str">
+        <v>62</v>
+      </c>
+      <c r="D7" s="43" t="str">
         <f>IF('III. 影響分析のための準備'!D17="","",'III. 影響分析のための準備'!D17)</f>
         <v/>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
       <c r="Q7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="46" t="str">
+        <v>63</v>
+      </c>
+      <c r="D8" s="43" t="str">
         <f>IF('III. 影響分析のための準備'!D23="","",'III. 影響分析のための準備'!D23)</f>
         <v/>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
       <c r="Q8" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="Q9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D12" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -8828,7 +8848,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D13" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -8844,7 +8864,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D14" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -8860,7 +8880,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D15" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -8876,7 +8896,7 @@
     </row>
     <row r="16" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -8892,7 +8912,7 @@
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D17" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -8908,7 +8928,7 @@
     </row>
     <row r="18" spans="4:15" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -8924,7 +8944,7 @@
     </row>
     <row r="19" spans="4:15" ht="171.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -8940,7 +8960,7 @@
     </row>
     <row r="20" spans="4:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -8956,49 +8976,49 @@
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D23" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F23" s="55"/>
       <c r="G23" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
       <c r="J23" s="58"/>
       <c r="K23" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L23" s="58"/>
     </row>
@@ -9011,7 +9031,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="59"/>
       <c r="K24" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" s="59"/>
     </row>
@@ -9024,7 +9044,7 @@
       <c r="I25" s="56"/>
       <c r="J25" s="59"/>
       <c r="K25" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L25" s="59"/>
     </row>
@@ -9037,7 +9057,7 @@
       <c r="I26" s="56"/>
       <c r="J26" s="59"/>
       <c r="K26" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L26" s="59"/>
     </row>
@@ -9050,7 +9070,7 @@
       <c r="I27" s="56"/>
       <c r="J27" s="59"/>
       <c r="K27" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L27" s="59"/>
     </row>
@@ -9063,7 +9083,7 @@
       <c r="I28" s="56"/>
       <c r="J28" s="59"/>
       <c r="K28" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L28" s="59"/>
     </row>
@@ -9076,26 +9096,26 @@
       <c r="I29" s="57"/>
       <c r="J29" s="60"/>
       <c r="K29" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D30" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
       <c r="J30" s="58"/>
       <c r="K30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L30" s="58"/>
     </row>
@@ -9108,7 +9128,7 @@
       <c r="I31" s="56"/>
       <c r="J31" s="59"/>
       <c r="K31" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" s="59"/>
     </row>
@@ -9121,7 +9141,7 @@
       <c r="I32" s="56"/>
       <c r="J32" s="59"/>
       <c r="K32" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L32" s="59"/>
     </row>
@@ -9134,7 +9154,7 @@
       <c r="I33" s="56"/>
       <c r="J33" s="59"/>
       <c r="K33" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="59"/>
     </row>
@@ -9147,7 +9167,7 @@
       <c r="I34" s="56"/>
       <c r="J34" s="59"/>
       <c r="K34" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L34" s="59"/>
     </row>
@@ -9160,7 +9180,7 @@
       <c r="I35" s="56"/>
       <c r="J35" s="59"/>
       <c r="K35" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L35" s="59"/>
     </row>
@@ -9173,26 +9193,26 @@
       <c r="I36" s="57"/>
       <c r="J36" s="60"/>
       <c r="K36" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L36" s="60"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D37" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
       <c r="J37" s="58"/>
       <c r="K37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L37" s="58"/>
     </row>
@@ -9205,7 +9225,7 @@
       <c r="I38" s="56"/>
       <c r="J38" s="59"/>
       <c r="K38" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L38" s="59"/>
     </row>
@@ -9218,7 +9238,7 @@
       <c r="I39" s="56"/>
       <c r="J39" s="59"/>
       <c r="K39" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="59"/>
     </row>
@@ -9231,7 +9251,7 @@
       <c r="I40" s="56"/>
       <c r="J40" s="59"/>
       <c r="K40" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L40" s="59"/>
     </row>
@@ -9244,7 +9264,7 @@
       <c r="I41" s="56"/>
       <c r="J41" s="59"/>
       <c r="K41" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L41" s="59"/>
     </row>
@@ -9257,7 +9277,7 @@
       <c r="I42" s="56"/>
       <c r="J42" s="59"/>
       <c r="K42" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="59"/>
     </row>
@@ -9270,26 +9290,26 @@
       <c r="I43" s="57"/>
       <c r="J43" s="60"/>
       <c r="K43" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L43" s="60"/>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D44" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F44" s="55"/>
       <c r="G44" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
       <c r="J44" s="58"/>
       <c r="K44" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L44" s="58"/>
     </row>
@@ -9302,7 +9322,7 @@
       <c r="I45" s="56"/>
       <c r="J45" s="59"/>
       <c r="K45" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L45" s="59"/>
     </row>
@@ -9315,7 +9335,7 @@
       <c r="I46" s="56"/>
       <c r="J46" s="59"/>
       <c r="K46" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L46" s="59"/>
     </row>
@@ -9328,7 +9348,7 @@
       <c r="I47" s="56"/>
       <c r="J47" s="59"/>
       <c r="K47" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L47" s="59"/>
     </row>
@@ -9341,7 +9361,7 @@
       <c r="I48" s="56"/>
       <c r="J48" s="59"/>
       <c r="K48" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L48" s="59"/>
     </row>
@@ -9354,7 +9374,7 @@
       <c r="I49" s="56"/>
       <c r="J49" s="59"/>
       <c r="K49" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="59"/>
     </row>
@@ -9367,26 +9387,26 @@
       <c r="I50" s="57"/>
       <c r="J50" s="60"/>
       <c r="K50" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L50" s="60"/>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D51" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F51" s="55"/>
       <c r="G51" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
       <c r="J51" s="58"/>
       <c r="K51" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L51" s="58"/>
     </row>
@@ -9399,7 +9419,7 @@
       <c r="I52" s="56"/>
       <c r="J52" s="59"/>
       <c r="K52" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L52" s="59"/>
     </row>
@@ -9412,7 +9432,7 @@
       <c r="I53" s="56"/>
       <c r="J53" s="59"/>
       <c r="K53" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L53" s="59"/>
     </row>
@@ -9425,7 +9445,7 @@
       <c r="I54" s="56"/>
       <c r="J54" s="59"/>
       <c r="K54" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L54" s="59"/>
     </row>
@@ -9438,7 +9458,7 @@
       <c r="I55" s="56"/>
       <c r="J55" s="59"/>
       <c r="K55" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L55" s="59"/>
     </row>
@@ -9451,7 +9471,7 @@
       <c r="I56" s="56"/>
       <c r="J56" s="59"/>
       <c r="K56" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="59"/>
     </row>
@@ -9464,26 +9484,26 @@
       <c r="I57" s="57"/>
       <c r="J57" s="60"/>
       <c r="K57" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L57" s="60"/>
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D58" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
       <c r="J58" s="58"/>
       <c r="K58" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L58" s="58"/>
     </row>
@@ -9496,7 +9516,7 @@
       <c r="I59" s="56"/>
       <c r="J59" s="59"/>
       <c r="K59" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L59" s="59"/>
     </row>
@@ -9509,7 +9529,7 @@
       <c r="I60" s="56"/>
       <c r="J60" s="59"/>
       <c r="K60" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L60" s="59"/>
     </row>
@@ -9522,7 +9542,7 @@
       <c r="I61" s="56"/>
       <c r="J61" s="59"/>
       <c r="K61" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L61" s="59"/>
     </row>
@@ -9535,7 +9555,7 @@
       <c r="I62" s="56"/>
       <c r="J62" s="59"/>
       <c r="K62" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L62" s="59"/>
     </row>
@@ -9548,7 +9568,7 @@
       <c r="I63" s="56"/>
       <c r="J63" s="59"/>
       <c r="K63" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="59"/>
     </row>
@@ -9561,26 +9581,26 @@
       <c r="I64" s="57"/>
       <c r="J64" s="60"/>
       <c r="K64" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L64" s="60"/>
     </row>
     <row r="65" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D65" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F65" s="55"/>
       <c r="G65" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="55"/>
       <c r="J65" s="58"/>
       <c r="K65" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L65" s="58"/>
     </row>
@@ -9593,7 +9613,7 @@
       <c r="I66" s="56"/>
       <c r="J66" s="59"/>
       <c r="K66" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L66" s="59"/>
     </row>
@@ -9606,7 +9626,7 @@
       <c r="I67" s="56"/>
       <c r="J67" s="59"/>
       <c r="K67" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L67" s="59"/>
     </row>
@@ -9619,7 +9639,7 @@
       <c r="I68" s="56"/>
       <c r="J68" s="59"/>
       <c r="K68" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L68" s="59"/>
     </row>
@@ -9632,7 +9652,7 @@
       <c r="I69" s="56"/>
       <c r="J69" s="59"/>
       <c r="K69" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L69" s="59"/>
     </row>
@@ -9645,7 +9665,7 @@
       <c r="I70" s="56"/>
       <c r="J70" s="59"/>
       <c r="K70" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L70" s="59"/>
     </row>
@@ -9658,26 +9678,26 @@
       <c r="I71" s="57"/>
       <c r="J71" s="60"/>
       <c r="K71" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L71" s="60"/>
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D72" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E72" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F72" s="55"/>
       <c r="G72" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H72" s="55"/>
       <c r="I72" s="55"/>
       <c r="J72" s="58"/>
       <c r="K72" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L72" s="58"/>
     </row>
@@ -9690,7 +9710,7 @@
       <c r="I73" s="56"/>
       <c r="J73" s="59"/>
       <c r="K73" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="59"/>
     </row>
@@ -9703,7 +9723,7 @@
       <c r="I74" s="56"/>
       <c r="J74" s="59"/>
       <c r="K74" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L74" s="59"/>
     </row>
@@ -9716,7 +9736,7 @@
       <c r="I75" s="56"/>
       <c r="J75" s="59"/>
       <c r="K75" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L75" s="59"/>
     </row>
@@ -9729,7 +9749,7 @@
       <c r="I76" s="56"/>
       <c r="J76" s="59"/>
       <c r="K76" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L76" s="59"/>
     </row>
@@ -9742,7 +9762,7 @@
       <c r="I77" s="56"/>
       <c r="J77" s="59"/>
       <c r="K77" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L77" s="59"/>
     </row>
@@ -9755,32 +9775,53 @@
       <c r="I78" s="57"/>
       <c r="J78" s="60"/>
       <c r="K78" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L78" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="H23:H29"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="J23:J29"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="I72:I78"/>
+    <mergeCell ref="J72:J78"/>
+    <mergeCell ref="L72:L78"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="G72:G78"/>
+    <mergeCell ref="H72:H78"/>
+    <mergeCell ref="I58:I64"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="L58:L64"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="F65:F71"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="J65:J71"/>
+    <mergeCell ref="L65:L71"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="H58:H64"/>
+    <mergeCell ref="I44:I50"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="L44:L50"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="H51:H57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="L51:L57"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="G44:G50"/>
+    <mergeCell ref="H44:H50"/>
     <mergeCell ref="I30:I36"/>
     <mergeCell ref="J30:J36"/>
     <mergeCell ref="L30:L36"/>
@@ -9797,47 +9838,26 @@
     <mergeCell ref="F30:F36"/>
     <mergeCell ref="G30:G36"/>
     <mergeCell ref="H30:H36"/>
-    <mergeCell ref="I44:I50"/>
-    <mergeCell ref="J44:J50"/>
-    <mergeCell ref="L44:L50"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="L51:L57"/>
-    <mergeCell ref="D44:D50"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="G44:G50"/>
-    <mergeCell ref="H44:H50"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="J65:J71"/>
-    <mergeCell ref="L65:L71"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="H58:H64"/>
-    <mergeCell ref="I72:I78"/>
-    <mergeCell ref="J72:J78"/>
-    <mergeCell ref="L72:L78"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D72:D78"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="G72:G78"/>
-    <mergeCell ref="H72:H78"/>
-    <mergeCell ref="I58:I64"/>
-    <mergeCell ref="J58:J64"/>
-    <mergeCell ref="L58:L64"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="F65:F71"/>
-    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="J23:J29"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9847,7 +9867,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C2941-A107-4467-BEB9-449AAD74E0EF}">
-  <dimension ref="B2:P68"/>
+  <dimension ref="B1:P68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9864,9 +9884,14 @@
     <col min="16" max="16" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
@@ -9874,137 +9899,137 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="46" t="str">
+        <v>60</v>
+      </c>
+      <c r="D5" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C6="","",'II. ヒアリングシート'!C6)</f>
         <v/>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
       <c r="P5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="46" t="str">
+        <v>96</v>
+      </c>
+      <c r="D6" s="43" t="str">
         <f>IF('III. 影響分析のための準備'!D31="","",'III. 影響分析のための準備'!D31)</f>
         <v/>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
       <c r="P6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="46" t="str">
+        <v>17</v>
+      </c>
+      <c r="D7" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C16="","",'II. ヒアリングシート'!C16)</f>
         <v/>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
       <c r="P7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="46" t="str">
+        <v>97</v>
+      </c>
+      <c r="D8" s="43" t="str">
         <f>IF('III. 影響分析のための準備'!D39="","",'III. 影響分析のための準備'!D39)</f>
         <v/>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
       <c r="P8" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="46" t="str">
+        <v>98</v>
+      </c>
+      <c r="D9" s="43" t="str">
         <f>IF('II. ヒアリングシート'!C23="","",'II. ヒアリングシート'!C23)</f>
         <v/>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
       <c r="P9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="64" t="str">
+        <v>24</v>
+      </c>
+      <c r="D10" s="66" t="str">
         <f>IF('II. ヒアリングシート'!C26="","",'II. ヒアリングシート'!C26)</f>
         <v/>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D11" s="13"/>
@@ -10022,37 +10047,37 @@
     <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -10067,12 +10092,12 @@
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:14" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D21" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -10087,7 +10112,7 @@
     </row>
     <row r="22" spans="4:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D22" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -10102,255 +10127,255 @@
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D25" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="55"/>
       <c r="I25" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="58"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="66"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D27" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" s="55"/>
       <c r="I27" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="58"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="58"/>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="66"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D29" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="55"/>
       <c r="I29" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="58"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="58"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="66"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D31" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F31" s="55"/>
       <c r="G31" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="58"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="58"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K32" s="66"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D33" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="55"/>
       <c r="I33" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="58"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="58"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="66"/>
+      <c r="K34" s="64"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D35" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="F35" s="55"/>
       <c r="G35" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="55"/>
       <c r="I35" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" s="58"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="58"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" s="66"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D45" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -10365,12 +10390,12 @@
     </row>
     <row r="46" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D47" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -10385,7 +10410,7 @@
     </row>
     <row r="48" spans="3:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D48" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -10400,47 +10425,47 @@
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D51" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F51" s="55"/>
       <c r="G51" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H51" s="55"/>
       <c r="I51" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K51" s="58"/>
     </row>
@@ -10452,7 +10477,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="62"/>
       <c r="J52" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K52" s="59"/>
     </row>
@@ -10464,27 +10489,27 @@
       <c r="H53" s="57"/>
       <c r="I53" s="63"/>
       <c r="J53" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K53" s="60"/>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D54" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E54" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F54" s="55"/>
       <c r="G54" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H54" s="55"/>
       <c r="I54" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K54" s="58"/>
     </row>
@@ -10496,7 +10521,7 @@
       <c r="H55" s="56"/>
       <c r="I55" s="62"/>
       <c r="J55" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K55" s="59"/>
     </row>
@@ -10508,27 +10533,27 @@
       <c r="H56" s="57"/>
       <c r="I56" s="63"/>
       <c r="J56" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K56" s="60"/>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D57" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F57" s="55"/>
       <c r="G57" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H57" s="55"/>
       <c r="I57" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K57" s="58"/>
     </row>
@@ -10540,7 +10565,7 @@
       <c r="H58" s="56"/>
       <c r="I58" s="62"/>
       <c r="J58" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K58" s="59"/>
     </row>
@@ -10552,27 +10577,27 @@
       <c r="H59" s="57"/>
       <c r="I59" s="63"/>
       <c r="J59" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" s="60"/>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D60" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F60" s="55"/>
       <c r="G60" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H60" s="55"/>
       <c r="I60" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K60" s="58"/>
     </row>
@@ -10584,7 +10609,7 @@
       <c r="H61" s="56"/>
       <c r="I61" s="62"/>
       <c r="J61" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K61" s="59"/>
     </row>
@@ -10596,27 +10621,27 @@
       <c r="H62" s="57"/>
       <c r="I62" s="63"/>
       <c r="J62" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K62" s="60"/>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D63" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F63" s="55"/>
       <c r="G63" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H63" s="55"/>
       <c r="I63" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K63" s="58"/>
     </row>
@@ -10628,7 +10653,7 @@
       <c r="H64" s="56"/>
       <c r="I64" s="62"/>
       <c r="J64" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K64" s="59"/>
     </row>
@@ -10640,27 +10665,27 @@
       <c r="H65" s="57"/>
       <c r="I65" s="63"/>
       <c r="J65" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K65" s="60"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D66" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E66" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F66" s="55"/>
       <c r="G66" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H66" s="55"/>
       <c r="I66" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K66" s="58"/>
     </row>
@@ -10672,7 +10697,7 @@
       <c r="H67" s="56"/>
       <c r="I67" s="62"/>
       <c r="J67" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K67" s="59"/>
     </row>
@@ -10684,76 +10709,28 @@
       <c r="H68" s="57"/>
       <c r="I68" s="63"/>
       <c r="J68" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K68" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D47:N47"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="D21:N21"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="D45:N45"/>
     <mergeCell ref="K63:K65"/>
     <mergeCell ref="K66:K68"/>
     <mergeCell ref="F66:F68"/>
@@ -10770,22 +10747,70 @@
     <mergeCell ref="G60:G62"/>
     <mergeCell ref="G63:G65"/>
     <mergeCell ref="G66:G68"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="D45:N45"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="D21:N21"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="D47:N47"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10795,7 +10820,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE381003-9666-4301-8BCE-66C0E147B4E3}">
-  <dimension ref="B2:F198"/>
+  <dimension ref="B1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10815,2018 +10840,2023 @@
     <col min="17" max="17" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C5" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>199</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C16" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C22" s="24"/>
       <c r="D22" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C24" s="24"/>
       <c r="D24" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C27" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>223</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C33" s="24"/>
       <c r="D33" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C35" s="24"/>
       <c r="D35" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C38" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C44" s="24"/>
       <c r="D44" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C46" s="24"/>
       <c r="D46" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C49" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C55" s="24"/>
       <c r="D55" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C57" s="24"/>
       <c r="D57" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C60" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C66" s="24"/>
       <c r="D66" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C68" s="24"/>
       <c r="D68" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C71" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C77" s="24"/>
       <c r="D77" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C79" s="24"/>
       <c r="D79" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
       <c r="E81" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C82" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C88" s="24"/>
       <c r="D88" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C90" s="24"/>
       <c r="D90" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C93" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C99" s="24"/>
       <c r="D99" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
       <c r="E102" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
       <c r="E103" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C104" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
       <c r="E106" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
       <c r="E107" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
       <c r="E108" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
       <c r="E109" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C110" s="24"/>
       <c r="D110" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
       <c r="E111" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C112" s="24"/>
       <c r="D112" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
       <c r="E113" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
       <c r="E114" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C115" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
       <c r="E116" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
       <c r="E117" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
       <c r="E120" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C121" s="24"/>
       <c r="D121" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
       <c r="E122" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C123" s="24"/>
       <c r="D123" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
       <c r="E124" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C125" s="26"/>
       <c r="D125" s="26"/>
       <c r="E125" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C126" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
       <c r="E127" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
       <c r="E128" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
       <c r="E129" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
       <c r="E130" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
       <c r="E131" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C132" s="24"/>
       <c r="D132" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
       <c r="E133" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C134" s="24"/>
       <c r="D134" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
       <c r="E135" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
       <c r="E136" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C137" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
       <c r="E138" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
       <c r="E139" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
       <c r="E140" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
       <c r="E141" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
       <c r="E142" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C143" s="24"/>
       <c r="D143" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C144" s="24"/>
       <c r="D144" s="24"/>
       <c r="E144" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C145" s="24"/>
       <c r="D145" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F145" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C146" s="24"/>
       <c r="D146" s="24"/>
       <c r="E146" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C147" s="26"/>
       <c r="D147" s="26"/>
       <c r="E147" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C148" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C149" s="24"/>
       <c r="D149" s="24"/>
       <c r="E149" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
       <c r="E150" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C151" s="24"/>
       <c r="D151" s="24"/>
       <c r="E151" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
       <c r="E152" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C153" s="24"/>
       <c r="D153" s="24"/>
       <c r="E153" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C154" s="24"/>
       <c r="D154" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
       <c r="E155" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C156" s="24"/>
       <c r="D156" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C157" s="24"/>
       <c r="D157" s="24"/>
       <c r="E157" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
       <c r="E158" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C159" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C160" s="24"/>
       <c r="D160" s="24"/>
       <c r="E160" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C161" s="24"/>
       <c r="D161" s="24"/>
       <c r="E161" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C162" s="24"/>
       <c r="D162" s="24"/>
       <c r="E162" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F162" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C163" s="24"/>
       <c r="D163" s="24"/>
       <c r="E163" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C164" s="24"/>
       <c r="D164" s="24"/>
       <c r="E164" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C165" s="24"/>
       <c r="D165" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C166" s="24"/>
       <c r="D166" s="24"/>
       <c r="E166" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C167" s="24"/>
       <c r="D167" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C168" s="24"/>
       <c r="D168" s="24"/>
       <c r="E168" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C169" s="26"/>
       <c r="D169" s="26"/>
       <c r="E169" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C170" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C171" s="24"/>
       <c r="D171" s="24"/>
       <c r="E171" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C172" s="24"/>
       <c r="D172" s="24"/>
       <c r="E172" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C173" s="24"/>
       <c r="D173" s="24"/>
       <c r="E173" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F173" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C174" s="24"/>
       <c r="D174" s="24"/>
       <c r="E174" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C175" s="24"/>
       <c r="D175" s="24"/>
       <c r="E175" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C176" s="24"/>
       <c r="D176" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C177" s="24"/>
       <c r="D177" s="24"/>
       <c r="E177" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C178" s="24"/>
       <c r="D178" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E178" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F178" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C179" s="24"/>
       <c r="D179" s="24"/>
       <c r="E179" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F179" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C180" s="26"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C181" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E181" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F181" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="D181" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E181" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F181" s="23" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C182" s="24"/>
       <c r="D182" s="24"/>
       <c r="E182" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F182" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C183" s="24"/>
       <c r="D183" s="24"/>
       <c r="E183" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F183" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C184" s="24"/>
       <c r="D184" s="24"/>
       <c r="E184" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F184" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C185" s="24"/>
       <c r="D185" s="24"/>
       <c r="E185" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F185" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C186" s="24"/>
       <c r="D186" s="24"/>
       <c r="E186" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C187" s="24"/>
       <c r="D187" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C188" s="24"/>
       <c r="D188" s="24"/>
       <c r="E188" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F188" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C189" s="24"/>
       <c r="D189" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E189" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F189" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C190" s="24"/>
       <c r="D190" s="24"/>
       <c r="E190" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F190" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
       <c r="E191" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12840,7 +12870,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFEE4C-1DE7-4D99-BA6A-5F2E18917E16}">
-  <dimension ref="B2:O33"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
@@ -12854,29 +12884,34 @@
     <col min="15" max="15" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="O3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -12889,41 +12924,41 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
       <c r="O5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="O6" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="O6" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="7"/>
       <c r="M7" s="8"/>
       <c r="O7" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -12934,67 +12969,67 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10"/>
-      <c r="C12" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
+      <c r="C12" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="11"/>
@@ -13003,7 +13038,7 @@
     <row r="15" spans="2:15" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11"/>
       <c r="C15" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -13014,67 +13049,67 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="10"/>
-      <c r="C19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
+      <c r="C19" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="11"/>
@@ -13083,7 +13118,7 @@
     <row r="22" spans="2:13" ht="132" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11"/>
       <c r="C22" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -13094,25 +13129,25 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="39"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="11"/>
@@ -13121,7 +13156,7 @@
     <row r="25" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11"/>
       <c r="C25" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -13132,64 +13167,64 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="39"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
-      <c r="C29" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
+      <c r="C29" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="11"/>
@@ -13207,40 +13242,45 @@
     </row>
     <row r="32" spans="2:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11"/>
-      <c r="C32" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="38"/>
+      <c r="C32" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="C33:M33"/>
     <mergeCell ref="C25:M25"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C8:M8"/>
@@ -13253,11 +13293,6 @@
     <mergeCell ref="C20:M20"/>
     <mergeCell ref="C22:M22"/>
     <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="C33:M33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13267,7 +13302,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDBBE98-4A2F-4004-A1E7-E5A4887396CF}">
-  <dimension ref="B2:Q40"/>
+  <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13278,14 +13313,19 @@
     <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -13300,63 +13340,63 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="P4" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
       <c r="P7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="49" t="str">
+        <v>35</v>
+      </c>
+      <c r="D8" s="46" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C9="","",'分析例（II. ヒアリングシート）'!C9)</f>
         <v>撮影された道路標識画像について標識種類に分類する</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
       <c r="P8" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
@@ -13365,7 +13405,7 @@
     <row r="10" spans="2:17" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -13383,26 +13423,26 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -13411,13 +13451,13 @@
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="175.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -13432,45 +13472,45 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="46" t="str">
+        <v>41</v>
+      </c>
+      <c r="D16" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C30="","",'分析例（II. ヒアリングシート）'!C30)</f>
         <v>歩行者、ドライバ、サービス提供者</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.4">
@@ -13479,13 +13519,13 @@
     <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="209.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="3"/>
       <c r="D21" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -13500,45 +13540,45 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="46" t="str">
+        <v>45</v>
+      </c>
+      <c r="D22" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C33="","",'分析例（II. ヒアリングシート）'!C33)</f>
         <v>路上の物品、道路標識、自動車、他車</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="48"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
+        <v>46</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.4">
@@ -13549,19 +13589,19 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C27" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" s="3"/>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="183" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -13576,45 +13616,45 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="46" t="str">
+        <v>50</v>
+      </c>
+      <c r="D30" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C30="","",'分析例（II. ヒアリングシート）'!C30)</f>
         <v>歩行者、ドライバ、サービス提供者</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
+        <v>51</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.4">
@@ -13622,19 +13662,19 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C35" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="187.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="3"/>
       <c r="D37" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -13649,49 +13689,54 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="46" t="str">
+        <v>55</v>
+      </c>
+      <c r="D38" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C30="","",'分析例（II. ヒアリングシート）'!C30)</f>
         <v>歩行者、ドライバ、サービス提供者</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="48"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="54"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C40" s="3"/>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="D37:N37"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="D39:N39"/>
     <mergeCell ref="D29:N29"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="D7:N7"/>
@@ -13704,11 +13749,6 @@
     <mergeCell ref="D21:N21"/>
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="D23:N23"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="D37:N37"/>
-    <mergeCell ref="D38:N38"/>
-    <mergeCell ref="D39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13718,7 +13758,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FD404C-52D2-4513-BCFA-8F33BF2B49B4}">
-  <dimension ref="B2:Q78"/>
+  <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13737,9 +13777,14 @@
     <col min="17" max="17" width="18" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -13747,119 +13792,119 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="46" t="str">
+        <v>60</v>
+      </c>
+      <c r="D5" s="43" t="str">
         <f>IF('分析例（II. ヒアリングシート）'!C6="","",'分析例（II. ヒアリングシート）'!C6)</f>
         <v>自動運転の道路標識識別システム</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
       <c r="Q5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="46" t="str">
+        <v>61</v>
+      </c>
+      <c r="D6" s="43" t="str">
         <f>IF('分析例（III. 影響分析のための準備）'!D11="","",'分析例（III. 影響分析のための準備）'!D11)</f>
         <v>撮影された道路標識画像について標識種類に分類できない</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
       <c r="Q6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="46" t="str">
+        <v>62</v>
+      </c>
+      <c r="D7" s="43" t="str">
         <f>IF('分析例（III. 影響分析のための準備）'!D17="","",'分析例（III. 影響分析のための準備）'!D17)</f>
         <v>歩行者、ドライバ、サービス提供者</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
       <c r="Q7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="46" t="str">
+        <v>63</v>
+      </c>
+      <c r="D8" s="43" t="str">
         <f>IF('分析例（III. 影響分析のための準備）'!D23="","",'分析例（III. 影響分析のための準備）'!D23)</f>
         <v>路上の物品、道路標識、自車、他車</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
       <c r="Q8" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="Q9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D12" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -13875,7 +13920,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D13" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -13891,7 +13936,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D14" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -13907,7 +13952,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D15" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -13923,7 +13968,7 @@
     </row>
     <row r="16" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -13939,7 +13984,7 @@
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D17" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -13955,7 +14000,7 @@
     </row>
     <row r="18" spans="4:15" ht="165" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -13971,7 +14016,7 @@
     </row>
     <row r="19" spans="4:15" ht="162.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -13987,7 +14032,7 @@
     </row>
     <row r="20" spans="4:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -14003,60 +14048,60 @@
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D23" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="F23" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="H23" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="58" t="s">
+      <c r="K23" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="L23" s="58" t="s">
         <v>146</v>
-      </c>
-      <c r="L23" s="58" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.4">
@@ -14068,7 +14113,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="59"/>
       <c r="K24" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" s="59"/>
     </row>
@@ -14081,7 +14126,7 @@
       <c r="I25" s="56"/>
       <c r="J25" s="59"/>
       <c r="K25" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L25" s="59"/>
     </row>
@@ -14094,7 +14139,7 @@
       <c r="I26" s="56"/>
       <c r="J26" s="59"/>
       <c r="K26" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L26" s="59"/>
     </row>
@@ -14107,7 +14152,7 @@
       <c r="I27" s="56"/>
       <c r="J27" s="59"/>
       <c r="K27" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L27" s="59"/>
     </row>
@@ -14120,7 +14165,7 @@
       <c r="I28" s="56"/>
       <c r="J28" s="59"/>
       <c r="K28" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L28" s="59"/>
     </row>
@@ -14133,37 +14178,37 @@
       <c r="I29" s="57"/>
       <c r="J29" s="60"/>
       <c r="K29" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D30" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="F30" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="H30" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="58" t="s">
+      <c r="K30" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="14" t="s">
-        <v>156</v>
-      </c>
       <c r="L30" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.4">
@@ -14175,7 +14220,7 @@
       <c r="I31" s="56"/>
       <c r="J31" s="59"/>
       <c r="K31" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L31" s="59"/>
     </row>
@@ -14188,7 +14233,7 @@
       <c r="I32" s="56"/>
       <c r="J32" s="59"/>
       <c r="K32" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L32" s="59"/>
     </row>
@@ -14201,7 +14246,7 @@
       <c r="I33" s="56"/>
       <c r="J33" s="59"/>
       <c r="K33" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L33" s="59"/>
     </row>
@@ -14214,7 +14259,7 @@
       <c r="I34" s="56"/>
       <c r="J34" s="59"/>
       <c r="K34" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L34" s="59"/>
     </row>
@@ -14227,7 +14272,7 @@
       <c r="I35" s="56"/>
       <c r="J35" s="59"/>
       <c r="K35" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L35" s="59"/>
     </row>
@@ -14240,37 +14285,37 @@
       <c r="I36" s="57"/>
       <c r="J36" s="60"/>
       <c r="K36" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36" s="60"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D37" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="F37" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="H37" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J37" s="58" t="s">
+      <c r="K37" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K37" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="L37" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.4">
@@ -14282,7 +14327,7 @@
       <c r="I38" s="56"/>
       <c r="J38" s="59"/>
       <c r="K38" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L38" s="59"/>
     </row>
@@ -14295,7 +14340,7 @@
       <c r="I39" s="56"/>
       <c r="J39" s="59"/>
       <c r="K39" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L39" s="59"/>
     </row>
@@ -14308,7 +14353,7 @@
       <c r="I40" s="56"/>
       <c r="J40" s="59"/>
       <c r="K40" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L40" s="59"/>
     </row>
@@ -14321,7 +14366,7 @@
       <c r="I41" s="56"/>
       <c r="J41" s="59"/>
       <c r="K41" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L41" s="59"/>
     </row>
@@ -14334,7 +14379,7 @@
       <c r="I42" s="56"/>
       <c r="J42" s="59"/>
       <c r="K42" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L42" s="59"/>
     </row>
@@ -14347,37 +14392,37 @@
       <c r="I43" s="57"/>
       <c r="J43" s="60"/>
       <c r="K43" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L43" s="60"/>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D44" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="F44" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="H44" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" s="58" t="s">
+      <c r="K44" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K44" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="L44" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.4">
@@ -14389,7 +14434,7 @@
       <c r="I45" s="56"/>
       <c r="J45" s="59"/>
       <c r="K45" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L45" s="59"/>
     </row>
@@ -14402,7 +14447,7 @@
       <c r="I46" s="56"/>
       <c r="J46" s="59"/>
       <c r="K46" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L46" s="59"/>
     </row>
@@ -14415,7 +14460,7 @@
       <c r="I47" s="56"/>
       <c r="J47" s="59"/>
       <c r="K47" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L47" s="59"/>
     </row>
@@ -14428,7 +14473,7 @@
       <c r="I48" s="56"/>
       <c r="J48" s="59"/>
       <c r="K48" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L48" s="59"/>
     </row>
@@ -14441,7 +14486,7 @@
       <c r="I49" s="56"/>
       <c r="J49" s="59"/>
       <c r="K49" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L49" s="59"/>
     </row>
@@ -14454,37 +14499,37 @@
       <c r="I50" s="57"/>
       <c r="J50" s="60"/>
       <c r="K50" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L50" s="60"/>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D51" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="61" t="s">
+      <c r="F51" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="H51" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I51" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J51" s="58" t="s">
+      <c r="K51" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K51" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="L51" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.4">
@@ -14496,7 +14541,7 @@
       <c r="I52" s="56"/>
       <c r="J52" s="59"/>
       <c r="K52" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L52" s="59"/>
     </row>
@@ -14509,7 +14554,7 @@
       <c r="I53" s="56"/>
       <c r="J53" s="59"/>
       <c r="K53" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L53" s="59"/>
     </row>
@@ -14522,7 +14567,7 @@
       <c r="I54" s="56"/>
       <c r="J54" s="59"/>
       <c r="K54" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L54" s="59"/>
     </row>
@@ -14535,7 +14580,7 @@
       <c r="I55" s="56"/>
       <c r="J55" s="59"/>
       <c r="K55" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L55" s="59"/>
     </row>
@@ -14548,7 +14593,7 @@
       <c r="I56" s="56"/>
       <c r="J56" s="59"/>
       <c r="K56" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L56" s="59"/>
     </row>
@@ -14561,37 +14606,37 @@
       <c r="I57" s="57"/>
       <c r="J57" s="60"/>
       <c r="K57" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L57" s="60"/>
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D58" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="61" t="s">
+      <c r="F58" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="H58" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J58" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="I58" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J58" s="58" t="s">
+      <c r="K58" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K58" s="14" t="s">
-        <v>179</v>
-      </c>
       <c r="L58" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.4">
@@ -14603,7 +14648,7 @@
       <c r="I59" s="56"/>
       <c r="J59" s="59"/>
       <c r="K59" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L59" s="59"/>
     </row>
@@ -14616,7 +14661,7 @@
       <c r="I60" s="56"/>
       <c r="J60" s="59"/>
       <c r="K60" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L60" s="59"/>
     </row>
@@ -14629,7 +14674,7 @@
       <c r="I61" s="56"/>
       <c r="J61" s="59"/>
       <c r="K61" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L61" s="59"/>
     </row>
@@ -14642,7 +14687,7 @@
       <c r="I62" s="56"/>
       <c r="J62" s="59"/>
       <c r="K62" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L62" s="59"/>
     </row>
@@ -14655,7 +14700,7 @@
       <c r="I63" s="56"/>
       <c r="J63" s="59"/>
       <c r="K63" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L63" s="59"/>
     </row>
@@ -14668,37 +14713,37 @@
       <c r="I64" s="57"/>
       <c r="J64" s="60"/>
       <c r="K64" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L64" s="60"/>
     </row>
     <row r="65" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D65" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E65" s="61" t="s">
+      <c r="F65" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="H65" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I65" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="I65" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J65" s="58" t="s">
+      <c r="K65" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K65" s="14" t="s">
-        <v>184</v>
-      </c>
       <c r="L65" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="4:12" x14ac:dyDescent="0.4">
@@ -14710,7 +14755,7 @@
       <c r="I66" s="56"/>
       <c r="J66" s="59"/>
       <c r="K66" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L66" s="59"/>
     </row>
@@ -14723,7 +14768,7 @@
       <c r="I67" s="56"/>
       <c r="J67" s="59"/>
       <c r="K67" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L67" s="59"/>
     </row>
@@ -14736,7 +14781,7 @@
       <c r="I68" s="56"/>
       <c r="J68" s="59"/>
       <c r="K68" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L68" s="59"/>
     </row>
@@ -14749,7 +14794,7 @@
       <c r="I69" s="56"/>
       <c r="J69" s="59"/>
       <c r="K69" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L69" s="59"/>
     </row>
@@ -14762,7 +14807,7 @@
       <c r="I70" s="56"/>
       <c r="J70" s="59"/>
       <c r="K70" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L70" s="59"/>
     </row>
@@ -14775,26 +14820,26 @@
       <c r="I71" s="57"/>
       <c r="J71" s="60"/>
       <c r="K71" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L71" s="60"/>
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D72" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E72" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="F72" s="55"/>
       <c r="G72" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H72" s="55"/>
       <c r="I72" s="55"/>
       <c r="J72" s="58"/>
       <c r="K72" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L72" s="58"/>
     </row>
@@ -14807,7 +14852,7 @@
       <c r="I73" s="56"/>
       <c r="J73" s="59"/>
       <c r="K73" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="59"/>
     </row>
@@ -14820,7 +14865,7 @@
       <c r="I74" s="56"/>
       <c r="J74" s="59"/>
       <c r="K74" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L74" s="59"/>
     </row>
@@ -14833,7 +14878,7 @@
       <c r="I75" s="56"/>
       <c r="J75" s="59"/>
       <c r="K75" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L75" s="59"/>
     </row>
@@ -14846,7 +14891,7 @@
       <c r="I76" s="56"/>
       <c r="J76" s="59"/>
       <c r="K76" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L76" s="59"/>
     </row>
@@ -14859,7 +14904,7 @@
       <c r="I77" s="56"/>
       <c r="J77" s="59"/>
       <c r="K77" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L77" s="59"/>
     </row>
@@ -14872,33 +14917,52 @@
       <c r="I78" s="57"/>
       <c r="J78" s="60"/>
       <c r="K78" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L78" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="H23:H29"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="J23:J29"/>
-    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J72:J78"/>
+    <mergeCell ref="L72:L78"/>
+    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="G72:G78"/>
+    <mergeCell ref="H72:H78"/>
+    <mergeCell ref="I72:I78"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="L58:L64"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="F65:F71"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="J65:J71"/>
+    <mergeCell ref="L65:L71"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="H58:H64"/>
+    <mergeCell ref="I58:I64"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="L44:L50"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="H51:H57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="L51:L57"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="G44:G50"/>
+    <mergeCell ref="H44:H50"/>
+    <mergeCell ref="I44:I50"/>
     <mergeCell ref="J30:J36"/>
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="D37:D43"/>
@@ -14915,46 +14979,27 @@
     <mergeCell ref="G30:G36"/>
     <mergeCell ref="H30:H36"/>
     <mergeCell ref="I30:I36"/>
-    <mergeCell ref="J44:J50"/>
-    <mergeCell ref="L44:L50"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="L51:L57"/>
-    <mergeCell ref="D44:D50"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="G44:G50"/>
-    <mergeCell ref="H44:H50"/>
-    <mergeCell ref="I44:I50"/>
-    <mergeCell ref="J58:J64"/>
-    <mergeCell ref="L58:L64"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="F65:F71"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="J65:J71"/>
-    <mergeCell ref="L65:L71"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="H58:H64"/>
-    <mergeCell ref="I58:I64"/>
-    <mergeCell ref="J72:J78"/>
-    <mergeCell ref="L72:L78"/>
-    <mergeCell ref="D72:D78"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="G72:G78"/>
-    <mergeCell ref="H72:H78"/>
-    <mergeCell ref="I72:I78"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="J23:J29"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14963,6 +15008,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6eb0dd79-bb85-4255-8a9f-502eb203acbd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AAF6AF0C7CE7549A5D17CD937362787" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5648afc0ceb10f8d3aef7534628de56e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74" xmlns:ns3="6eb0dd79-bb85-4255-8a9f-502eb203acbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16b1aaa335580a57cf6b8791155db3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74"/>
@@ -15211,28 +15277,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C311C61-70F5-4841-AF3B-EEF5CBA92954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74"/>
+    <ds:schemaRef ds:uri="6eb0dd79-bb85-4255-8a9f-502eb203acbd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6eb0dd79-bb85-4255-8a9f-502eb203acbd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A76C028-935A-4BAD-A124-72B7C60FB57A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A2B557-6EE4-4523-90D9-79BB510348A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15249,23 +15313,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A76C028-935A-4BAD-A124-72B7C60FB57A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C311C61-70F5-4841-AF3B-EEF5CBA92954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74"/>
-    <ds:schemaRef ds:uri="6eb0dd79-bb85-4255-8a9f-502eb203acbd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>